--- a/File/测试设备/中文万维手机统计.xlsx
+++ b/File/测试设备/中文万维手机统计.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{780D0FF4-C2B5-46E0-8593-30DBE746A829}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82F6166-B42E-433E-A69A-F1386A0C4F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>ios 6s</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,10 @@
   </si>
   <si>
     <t>11.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仝玉池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +556,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,6 +759,9 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
